--- a/数值/Z_职业.xlsx
+++ b/数值/Z_职业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="t_prof" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>名称</t>
   </si>
@@ -187,6 +187,30 @@
   </si>
   <si>
     <t>回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ico_head:role_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ico_head:role_201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,20 +566,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="60.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -566,19 +591,22 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -589,19 +617,22 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -612,19 +643,22 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -635,19 +669,22 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -657,11 +694,14 @@
       <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -671,7 +711,10 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -686,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/数值/Z_职业.xlsx
+++ b/数值/Z_职业.xlsx
@@ -154,14 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stb*100,hit*700,pry*200,pryd*500,crt*200,crtd*2000,enr*10,stbr*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stb*100,hit*650,pry*200,pryd*450,crt*250,crtd*2000,enr*10,stbr*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>init_attr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +203,14 @@
   </si>
   <si>
     <t>ico_head:role_201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb*100,hit*700,pry*200,pryd*500,crt*200,crtd*2000,enr*10,stbr*1,spd*500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb*100,hit*650,pry*200,pryd*450,crt*250,crtd*2000,enr*10,stbr*1,spd*500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -577,7 +579,7 @@
     <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -591,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
@@ -603,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -617,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -643,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -669,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -692,13 +694,19 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>1001</v>
+      </c>
+      <c r="F5">
+        <v>1001</v>
+      </c>
+      <c r="H5" t="s">
         <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -712,10 +720,16 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>1002</v>
+      </c>
+      <c r="F6">
+        <v>1002</v>
+      </c>
+      <c r="H6" t="s">
         <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S204"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A148" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -825,19 +839,19 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">

--- a/数值/Z_职业.xlsx
+++ b/数值/Z_职业.xlsx
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修炼仙术有成的大黄豆，以气功强化自己进行战斗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +207,10 @@
   </si>
   <si>
     <t>stb*100,hit*650,pry*200,pryd*450,crt*250,crtd*2000,enr*10,stbr*1,spd*500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修炼仙术小有所成的大黄豆，以气功强化自己进行战斗。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -593,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -694,10 +694,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>1001</v>
@@ -706,7 +706,7 @@
         <v>1001</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -720,7 +720,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>1002</v>
@@ -729,7 +729,7 @@
         <v>1002</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -839,19 +839,19 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
